--- a/InputData/elec/GDPbES/Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/GDPbES/Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\NV\elec\GDPbES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\GDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B373BDA-9C35-4580-8779-07DF385573FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF73F71-0543-43DC-85EF-555AF13B1D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="720" windowWidth="14480" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Notes:</t>
   </si>
@@ -157,9 +157,6 @@
   <si>
     <t>hydrogen combined cycle</t>
   </si>
-  <si>
-    <t>Nevada</t>
-  </si>
 </sst>
 </file>
 
@@ -209,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -221,7 +218,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,79 +522,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="5">
-        <v>45294</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -641,7 +631,7 @@
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>

--- a/InputData/elec/GDPbES/Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/GDPbES/Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\GDPbES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\NV\elec\GDPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF73F71-0543-43DC-85EF-555AF13B1D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B373BDA-9C35-4580-8779-07DF385573FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="720" windowWidth="14480" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Notes:</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>hydrogen combined cycle</t>
+  </si>
+  <si>
+    <t>Nevada</t>
   </si>
 </sst>
 </file>
@@ -206,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -218,6 +221,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,73 +526,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="5">
+        <v>45294</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -631,7 +641,7 @@
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
